--- a/Weapons.xlsx
+++ b/Weapons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Pictures\Onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC4D66-E3E3-49D7-9504-82EBF78F956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5639E829-6AE7-4677-880D-F412AA7C4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A0B5502-1D11-43AE-9C32-679A777A6EAB}"/>
   </bookViews>

--- a/Weapons.xlsx
+++ b/Weapons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Pictures\Onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5639E829-6AE7-4677-880D-F412AA7C4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDDA615-9D2E-4E36-808F-6C2814E6F820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A0B5502-1D11-43AE-9C32-679A777A6EAB}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Bonus to parrying</t>
   </si>
   <si>
-    <t>Bonus to attach outside of vision</t>
-  </si>
-  <si>
     <t>Physical or Spirit Armor</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Move weilder</t>
+  </si>
+  <si>
+    <t>Bonus to attack outside of vision</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L1" s="3"/>
     </row>
@@ -683,30 +683,30 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -714,19 +714,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="5"/>
     </row>
@@ -758,16 +758,16 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" s="4"/>
     </row>
@@ -779,16 +779,16 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L7" s="5"/>
     </row>
@@ -797,19 +797,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="5"/>
     </row>
@@ -818,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -838,10 +838,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -849,16 +849,16 @@
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -869,13 +869,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -883,7 +883,7 @@
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -894,13 +894,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -908,7 +908,7 @@
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -933,10 +933,10 @@
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -944,16 +944,16 @@
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>

--- a/Weapons.xlsx
+++ b/Weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Pictures\Onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDDA615-9D2E-4E36-808F-6C2814E6F820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CF808C-D01F-4895-AF89-667BABA5D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A0B5502-1D11-43AE-9C32-679A777A6EAB}"/>
   </bookViews>

--- a/Weapons.xlsx
+++ b/Weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Pictures\Onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CF808C-D01F-4895-AF89-667BABA5D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C3BFF-4BEC-47BA-A54C-4F2099F4CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A0B5502-1D11-43AE-9C32-679A777A6EAB}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>

--- a/Weapons.xlsx
+++ b/Weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Pictures\Onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C3BFF-4BEC-47BA-A54C-4F2099F4CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08575383-71F9-431F-8587-3726F0666920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A0B5502-1D11-43AE-9C32-679A777A6EAB}"/>
   </bookViews>
@@ -33,6 +33,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F64241B8-D134-4033-B64B-D482AACC31E1}</author>
+    <author>tc={C4BBA283-156D-44BB-945E-24B4E6868083}</author>
+    <author>tc={5B423DF6-0ED9-414A-B87E-747404849FC1}</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{F64241B8-D134-4033-B64B-D482AACC31E1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Missing skip turn</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="1" shapeId="0" xr:uid="{C4BBA283-156D-44BB-945E-24B4E6868083}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Need to move before calc bonus damage</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="2" shapeId="0" xr:uid="{5B423DF6-0ED9-414A-B87E-747404849FC1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dealing with adjacent target/delayed attack</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
@@ -268,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,13 +320,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -305,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,6 +371,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,6 +395,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Scott Jennings" id="{D48D4883-5670-44A6-ACDD-053611CCFE1A}" userId="Scott Jennings" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,8 +698,22 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D2" dT="2021-08-31T01:51:13.51" personId="{D48D4883-5670-44A6-ACDD-053611CCFE1A}" id="{F64241B8-D134-4033-B64B-D482AACC31E1}">
+    <text>Missing skip turn</text>
+  </threadedComment>
+  <threadedComment ref="D4" dT="2021-08-31T01:50:51.86" personId="{D48D4883-5670-44A6-ACDD-053611CCFE1A}" id="{C4BBA283-156D-44BB-945E-24B4E6868083}">
+    <text>Need to move before calc bonus damage</text>
+  </threadedComment>
+  <threadedComment ref="D12" dT="2021-08-31T01:52:40.07" personId="{D48D4883-5670-44A6-ACDD-053611CCFE1A}" id="{5B423DF6-0ED9-414A-B87E-747404849FC1}">
+    <text>Dealing with adjacent target/delayed attack</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B9CFEE-EF86-44F7-9AD2-5475DBA50489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B9CFEE-EF86-44F7-9AD2-5475DBA50489}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -691,21 +768,21 @@
       <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -722,7 +799,7 @@
       <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -742,10 +819,10 @@
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="8" t="s">
         <v>70</v>
       </c>
       <c r="L5" s="5"/>
@@ -763,7 +840,7 @@
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="9" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -784,7 +861,7 @@
       <c r="D7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -808,7 +885,7 @@
       <c r="J8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="8" t="s">
         <v>74</v>
       </c>
       <c r="L8" s="5"/>
@@ -1002,5 +1079,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Weapons.xlsx
+++ b/Weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Pictures\Onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08575383-71F9-431F-8587-3726F0666920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F048411E-EBA4-4342-B6CC-35EC82A8E133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A0B5502-1D11-43AE-9C32-679A777A6EAB}"/>
   </bookViews>
@@ -304,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,12 +319,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
